--- a/biology/Botanique/Bolet_pâle/Bolet_pâle.xlsx
+++ b/biology/Botanique/Bolet_pâle/Bolet_pâle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_p%C3%A2le</t>
+          <t>Bolet_pâle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet pâle, Bolet de Fechtner
 Butyriboletus fechtneri, le Bolet pâle ou Bolet de Fechtner, anciennement Boletus fechtneri, est une espèce plutôt rare de champignon (Fungi) basidiomycète du genre Butyriboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau grisâtre, son pied présentant souvent une zone rose sur sa moitié inférieure et sa chair bleuissante souvent uniquement au-dessus des tubes à la coupe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_p%C3%A2le</t>
+          <t>Bolet_pâle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,21 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus fechtneri (Velen.) D. Arora &amp; J.L. Frank, 2014[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus fechtneri Velen., 1922[1].
-Synonymes
-Butyriboletus fechtneri a pour synonymes[1] :
-Boletus appendiculatus subsp. pallescens Konrad, 1929
-Boletus fechtneri Velen., 1922
-Boletus pallescens (Konrad) Singer 1936[2]
-Phylogénétique
-Il est considéré comme le dernier ancêtre commun (MRCA) des Boletus[3]
-Étymologie
-Boletus fechtneri Velen. (1922)[4]  - Nommé ainsi en 1922 en hommage à František Fechtner (1883-1967), botaniste et taxidermiste tchèque à l'Université Charles de Prague qui a collaboré à sa description[5],[6].
-Noms vulgaires et vernaculaires
-Il est nommé Bolet pâle de son ancien nom scientifique, Boletus pallescens[2],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butyriboletus fechtneri (Velen.) D. Arora &amp; J.L. Frank, 2014.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus fechtneri Velen., 1922.
 </t>
         </is>
       </c>
@@ -537,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bolet_p%C3%A2le</t>
+          <t>Bolet_pâle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,18 +555,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Butyriboletus fechtneri a pour synonymes :
+Boletus appendiculatus subsp. pallescens Konrad, 1929
+Boletus fechtneri Velen., 1922
+Boletus pallescens (Konrad) Singer 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_pâle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme le dernier ancêtre commun (MRCA) des Boletus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_pâle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus fechtneri Velen. (1922)  - Nommé ainsi en 1922 en hommage à František Fechtner (1883-1967), botaniste et taxidermiste tchèque à l'Université Charles de Prague qui a collaboré à sa description,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_pâle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé Bolet pâle de son ancien nom scientifique, Boletus pallescens,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_pâle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Butyriboletus fechtneri, le Bolet pâle, sont les suivantes :
 Son chapeau mesure de 8 à 20 cm. Il est lisse, velouté et feutré, tomenteux. Sa couleur va du gris-blanc au beige crème, du gris-brun au brun, occasionnellement avec un très légère nuance rosée. Sa marge est excédentaire : son chapeau présente une bordure fine qui dépasse.
-L'hyménophore présente des pores jaunes, bleuissants à la pression ou à la coupe[8].
-Son stipe est jaunâtre, couvert d’un fin réseau concolore assez étendu, cerné de rose rougeâtre dans la zone médiane ou basse[8].
-La chair est blanchâtre jaunâtre, bleuissant dans le chapeau à la coupe (surtout juste au-dessus des tubes) et rosâtre à la base du stipe[8].
-Caractéristiques microscopiques
-Ses spores mesurent 11-15 x 4,5-6 µm[8].
+L'hyménophore présente des pores jaunes, bleuissants à la pression ou à la coupe.
+Son stipe est jaunâtre, couvert d’un fin réseau concolore assez étendu, cerné de rose rougeâtre dans la zone médiane ou basse.
+La chair est blanchâtre jaunâtre, bleuissant dans le chapeau à la coupe (surtout juste au-dessus des tubes) et rosâtre à la base du stipe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_pâle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_p%C3%A2le</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11-15 x 4,5-6 µm.
 </t>
         </is>
       </c>
